--- a/published-data/fonds-solidarite/fds-2022-05-13/fonds-solidarite-volet-1-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-05-13/fonds-solidarite-volet-1-regional-classe-effectif-latest.xlsx
@@ -533,13 +533,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>249324</v>
+        <v>249326</v>
       </c>
       <c r="D3" t="n">
         <v>47457</v>
       </c>
       <c r="E3" t="n">
-        <v>1036461686</v>
+        <v>1036473141</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -738,13 +738,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="D8" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E8" t="n">
-        <v>91049982</v>
+        <v>91109976</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -1886,13 +1886,13 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>56966</v>
+        <v>56967</v>
       </c>
       <c r="D36" t="n">
         <v>11716</v>
       </c>
       <c r="E36" t="n">
-        <v>223711899</v>
+        <v>223721899</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -2583,13 +2583,13 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>141677</v>
+        <v>141678</v>
       </c>
       <c r="D53" t="n">
         <v>28854</v>
       </c>
       <c r="E53" t="n">
-        <v>590053180</v>
+        <v>590056680</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -2624,13 +2624,13 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>60291</v>
+        <v>60292</v>
       </c>
       <c r="D54" t="n">
         <v>11727</v>
       </c>
       <c r="E54" t="n">
-        <v>353605970</v>
+        <v>353611523</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -2952,13 +2952,13 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4187</v>
+        <v>4188</v>
       </c>
       <c r="D62" t="n">
         <v>797</v>
       </c>
       <c r="E62" t="n">
-        <v>9180684</v>
+        <v>9183365</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -2993,13 +2993,13 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>14349</v>
+        <v>14352</v>
       </c>
       <c r="D63" t="n">
         <v>2812</v>
       </c>
       <c r="E63" t="n">
-        <v>36148502</v>
+        <v>36179469</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -3034,13 +3034,13 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5196</v>
+        <v>5198</v>
       </c>
       <c r="D64" t="n">
         <v>1053</v>
       </c>
       <c r="E64" t="n">
-        <v>20331329</v>
+        <v>20337729</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -3280,13 +3280,13 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>15723</v>
+        <v>15724</v>
       </c>
       <c r="D70" t="n">
         <v>2768</v>
       </c>
       <c r="E70" t="n">
-        <v>24657676</v>
+        <v>24658131</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -4141,13 +4141,13 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>151092</v>
+        <v>151093</v>
       </c>
       <c r="D91" t="n">
         <v>24834</v>
       </c>
       <c r="E91" t="n">
-        <v>482061222</v>
+        <v>482071222</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -4182,13 +4182,13 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>408990</v>
+        <v>408994</v>
       </c>
       <c r="D92" t="n">
         <v>70904</v>
       </c>
       <c r="E92" t="n">
-        <v>1593508742</v>
+        <v>1593538885</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -4223,13 +4223,13 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>209474</v>
+        <v>209480</v>
       </c>
       <c r="D93" t="n">
         <v>34260</v>
       </c>
       <c r="E93" t="n">
-        <v>1307375321</v>
+        <v>1307421313</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -4264,13 +4264,13 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>94136</v>
+        <v>94140</v>
       </c>
       <c r="D94" t="n">
         <v>13794</v>
       </c>
       <c r="E94" t="n">
-        <v>915385566</v>
+        <v>915436245</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -4305,13 +4305,13 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>50706</v>
+        <v>50709</v>
       </c>
       <c r="D95" t="n">
         <v>6982</v>
       </c>
       <c r="E95" t="n">
-        <v>929703196</v>
+        <v>929737465</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -4346,13 +4346,13 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>17235</v>
+        <v>17240</v>
       </c>
       <c r="D96" t="n">
         <v>2565</v>
       </c>
       <c r="E96" t="n">
-        <v>788531351</v>
+        <v>789174173</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -4428,13 +4428,13 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="D98" t="n">
         <v>181</v>
       </c>
       <c r="E98" t="n">
-        <v>117608252</v>
+        <v>117674774</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
@@ -4797,13 +4797,13 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>6386</v>
+        <v>6387</v>
       </c>
       <c r="D107" t="n">
         <v>1894</v>
       </c>
       <c r="E107" t="n">
-        <v>21935846</v>
+        <v>21941144</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
@@ -4879,13 +4879,13 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>1269</v>
+        <v>1271</v>
       </c>
       <c r="D109" t="n">
         <v>233</v>
       </c>
       <c r="E109" t="n">
-        <v>20732303</v>
+        <v>20757709</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
@@ -5084,13 +5084,13 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>3789</v>
+        <v>3791</v>
       </c>
       <c r="D114" t="n">
         <v>699</v>
       </c>
       <c r="E114" t="n">
-        <v>9073557</v>
+        <v>9080369</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
@@ -5125,13 +5125,13 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>11689</v>
+        <v>11691</v>
       </c>
       <c r="D115" t="n">
         <v>2248</v>
       </c>
       <c r="E115" t="n">
-        <v>32938514</v>
+        <v>32947448</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -5166,13 +5166,13 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>4549</v>
+        <v>4554</v>
       </c>
       <c r="D116" t="n">
         <v>967</v>
       </c>
       <c r="E116" t="n">
-        <v>20417858</v>
+        <v>20454780</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
@@ -5248,13 +5248,13 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>970</v>
+        <v>973</v>
       </c>
       <c r="D118" t="n">
         <v>161</v>
       </c>
       <c r="E118" t="n">
-        <v>11674776</v>
+        <v>11742670</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
@@ -5412,13 +5412,13 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>8484</v>
+        <v>8485</v>
       </c>
       <c r="D122" t="n">
         <v>1493</v>
       </c>
       <c r="E122" t="n">
-        <v>12669069</v>
+        <v>12669783</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
@@ -5494,13 +5494,13 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="D124" t="n">
         <v>139</v>
       </c>
       <c r="E124" t="n">
-        <v>2622736</v>
+        <v>2624236</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
@@ -6232,13 +6232,13 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>168971</v>
+        <v>168972</v>
       </c>
       <c r="D142" t="n">
         <v>35054</v>
       </c>
       <c r="E142" t="n">
-        <v>681755958</v>
+        <v>681760934</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
@@ -6806,13 +6806,13 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>25103</v>
+        <v>25104</v>
       </c>
       <c r="D156" t="n">
         <v>4633</v>
       </c>
       <c r="E156" t="n">
-        <v>199225108</v>
+        <v>199245925</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
